--- a/reverseprimer-v3_23.xlsx
+++ b/reverseprimer-v3_23.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_23" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2113-CAACTAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTAGGTCGTCTCGTGGGCTCGG</t>
+    <t>R2113-CACTTGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTTGGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2114-CCATCCAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATCCAGTAGTCTCGTGGGCTCGG</t>
+    <t>R2114-GAAGTCACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2115-CTGATCTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGATCTGTCGTCTCGTGGGCTCGG</t>
+    <t>R2115-CTTGAGAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2116-TGACTCCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTCCTTCGTCTCGTGGGCTCGG</t>
+    <t>R2116-TGGACTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGACTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2117-GTCACAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2117-TCAAGACAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGACAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2118-CTGACTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2118-GTGAGTGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGTGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2119-TGTTCTGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCTGACGGTCTCGTGGGCTCGG</t>
+    <t>R2119-AAGTGTCGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGTCGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2120-AGCTACACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTACACTTGTCTCGTGGGCTCGG</t>
+    <t>R2120-ATCGTTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTTCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2121-AACCAGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAGACTCGTCTCGTGGGCTCGG</t>
+    <t>R2121-GTACTCACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTCACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2122-GAACCTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R2122-ACAACGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACGTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2123-TTCCTTCGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTTCGTGGTCTCGTGGGCTCGG</t>
+    <t>R2123-AGGATGCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATGCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2124-TACAGGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGGACAGGTCTCGTGGGCTCGG</t>
+    <t>R2124-TACCTACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2125-GAGCTTGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGCTTGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2125-CGTAGTCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTAGTCGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2126-TAGAACCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAACCAGAGTCTCGTGGGCTCGG</t>
+    <t>R2126-TGTGAACCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGAACCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2127-CAACGTTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACGTTGTGGTCTCGTGGGCTCGG</t>
+    <t>R2127-CGATCTCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCTCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2128-CAGACATCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGACATCTAGTCTCGTGGGCTCGG</t>
+    <t>R2128-TGTGGATGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGGATGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2129-AACACTTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACTTCTCGTCTCGTGGGCTCGG</t>
+    <t>R2129-TCTACCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2130-AAGCAGTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGTGACGTCTCGTGGGCTCGG</t>
+    <t>R2130-AGTCGTTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCGTTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2131-CGTGTGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGTGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R2131-TAGGTGCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTGCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2132-TTGTCTCCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCTCCTGGTCTCGTGGGCTCGG</t>
+    <t>R2132-TGTTCGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCGACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2133-TTCGATGCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGATGCTGGTCTCGTGGGCTCGG</t>
+    <t>R2133-ACAACAGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACAGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2134-TCTACCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACCAAGTGTCTCGTGGGCTCGG</t>
+    <t>R2134-GAGGTTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGTTCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2135-CAACTCATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTCATGCGTCTCGTGGGCTCGG</t>
+    <t>R2135-CATGAACACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGAACACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2136-GCTCTACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCTACAGTGTCTCGTGGGCTCGG</t>
+    <t>R2136-CACTCCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTCCAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2137-TAGAGGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGGTGTGGTCTCGTGGGCTCGG</t>
+    <t>R2137-AAGTGACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2138-GATCACTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCACTACGGTCTCGTGGGCTCGG</t>
+    <t>R2138-TGAGTTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTTGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2139-TCAGGTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGGTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R2139-AACACCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACCAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2140-ACAACAAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACAAGCTGTCTCGTGGGCTCGG</t>
+    <t>R2140-GTGTCATGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCATGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2141-GGAACAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACAACGAGTCTCGTGGGCTCGG</t>
+    <t>R2141-TCACAGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACAGAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2142-TAGTCATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCATCCTGTCTCGTGGGCTCGG</t>
+    <t>R2142-ATGTGTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGTAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2143-ACCTCAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCAAGACGTCTCGTGGGCTCGG</t>
+    <t>R2143-ACAGAGTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGAGTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2144-AAGTCATCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCATCACGTCTCGTGGGCTCGG</t>
+    <t>R2144-AGACCTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACCTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2145-TTCCTACACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTACACGGTCTCGTGGGCTCGG</t>
+    <t>R2145-TGAGACTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGACTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2146-GAACAGCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAGCTTCGTCTCGTGGGCTCGG</t>
+    <t>R2146-ACTAGGAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGGAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2147-GTCAACAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAACAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2147-ACAGGTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGGTGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2148-ACGTACTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTACTACCGTCTCGTGGGCTCGG</t>
+    <t>R2148-TAGCACTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCACTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2149-AAGAAGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGTACGGTCTCGTGGGCTCGG</t>
+    <t>R2149-TACACTTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACTTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R2150-AGTACCTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACCTAGTGTCTCGTGGGCTCGG</t>
+    <t>R2150-ATCTGCACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGCACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R2151-AGTGTCAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTCAGGAGTCTCGTGGGCTCGG</t>
+    <t>R2151-TCTGTTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTTCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R2152-AACTTCCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTTCCAAGGTCTCGTGGGCTCGG</t>
+    <t>R2152-TACGTCAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTCAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R2153-TCACAGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACAGAAGGGTCTCGTGGGCTCGG</t>
+    <t>R2153-GTTGCTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGCTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R2154-GTTCATGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCATGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2154-ACAACCAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACCAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R2155-AAGTGAGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGAGGACGTCTCGTGGGCTCGG</t>
+    <t>R2155-TAGCTCCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTCCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R2156-TGTAGCTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGCTAGAGTCTCGTGGGCTCGG</t>
+    <t>R2156-AGTCAGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R2157-TCATGGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGGACCAGTCTCGTGGGCTCGG</t>
+    <t>R2157-ACGATGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGATGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R2158-AGGTGACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTGACTCTGTCTCGTGGGCTCGG</t>
+    <t>R2158-AGGTTGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTTGTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R2159-AGGTGTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTGTCAGTGTCTCGTGGGCTCGG</t>
+    <t>R2159-ACTTGACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTGACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R2160-CGTTGGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTGGAAGAGTCTCGTGGGCTCGG</t>
+    <t>R2160-AGGTCTAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R2161-TAGACTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACTCTACGTCTCGTGGGCTCGG</t>
+    <t>R2161-ATGACCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACCTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R2162-GATCTTCTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTTCTCCGTCTCGTGGGCTCGG</t>
+    <t>R2162-ACTGAGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAGATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R2163-GCTCAGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCAGTGATGTCTCGTGGGCTCGG</t>
+    <t>R2163-AGTCCTTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCCTTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R2164-AACATCCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACATCCTGAGTCTCGTGGGCTCGG</t>
+    <t>R2164-AAGCTTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTTGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R2165-AAGACGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACGTGTCGTCTCGTGGGCTCGG</t>
+    <t>R2165-CCACAGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCACAGAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R2166-GGAACACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACACATGGTCTCGTGGGCTCGG</t>
+    <t>R2166-ACGACTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGACTTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R2167-AAGTAGGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGGTACGTCTCGTGGGCTCGG</t>
+    <t>R2167-CATGACACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGACACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R2168-CTCAGAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGAGACTGTCTCGTGGGCTCGG</t>
+    <t>R2168-CAACACGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACACGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2169-TCCAGGTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGGTTGTGTCTCGTGGGCTCGG</t>
+    <t>R2169-CAAGATCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGATCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2170-AGAAGGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R2170-ACACGATCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGATCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2171-TCCTCCAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCCAGATGTCTCGTGGGCTCGG</t>
+    <t>R2171-CATGAACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGAACCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2172-TCTCATGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCATGGATGTCTCGTGGGCTCGG</t>
+    <t>R2172-GACACTTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACTTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2173-GAACGAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGAAGGTGTCTCGTGGGCTCGG</t>
+    <t>R2173-CTCTGGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTGGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R2174-CCTACCTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACCTAGAGTCTCGTGGGCTCGG</t>
+    <t>R2174-CTCTTCAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTTCAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R2175-GTTCAAGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCAAGGAGGTCTCGTGGGCTCGG</t>
+    <t>R2175-TGTGGTGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGGTGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R2176-TTCATGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCATGTCAGGTCTCGTGGGCTCGG</t>
+    <t>R2176-TCCAACATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAACATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R2177-TAGCTGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGTCTTGTCTCGTGGGCTCGG</t>
+    <t>R2177-CACTGTACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTGTACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R2178-CGAAGTTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAAGTTCTCGTCTCGTGGGCTCGG</t>
+    <t>R2178-ACAGAGTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGAGTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R2179-CAGACACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGACACGTTGTCTCGTGGGCTCGG</t>
+    <t>R2179-GAGTGAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R2180-GAAGTCTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCTACAGTCTCGTGGGCTCGG</t>
+    <t>R2180-GCTCATCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCATCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R2181-GAACTGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTGTCGTGTCTCGTGGGCTCGG</t>
+    <t>R2181-TGCACGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCACGTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R2182-GTGATGCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGATGCTGTGTCTCGTGGGCTCGG</t>
+    <t>R2182-CAGTAGGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTAGGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R2183-TACGTTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTTGACTGTCTCGTGGGCTCGG</t>
+    <t>R2183-AAGTGACACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGACACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R2184-AAGCATGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCATGAGCGTCTCGTGGGCTCGG</t>
+    <t>R2184-GGACAGATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACAGATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R2185-CATCTGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTGAGACGTCTCGTGGGCTCGG</t>
+    <t>R2185-TTCTGGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGGAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R2186-TCAGGAACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGGAACATGTCTCGTGGGCTCGG</t>
+    <t>R2186-TCTGGAAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGGAAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R2187-GAACGATCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGATCATGTCTCGTGGGCTCGG</t>
+    <t>R2187-TACATCTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACATCTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R2188-CTACCATCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCATCGTGTCTCGTGGGCTCGG</t>
+    <t>R2188-GCATGATGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGATGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R2189-CGTGATCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGATCGTAGTCTCGTGGGCTCGG</t>
+    <t>R2189-GGATCTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCTGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R2190-GCTACGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACGTGAAGTCTCGTGGGCTCGG</t>
+    <t>R2190-GGTGACTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGACTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R2191-AGAGTCTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCTCCAGTCTCGTGGGCTCGG</t>
+    <t>R2191-AACACAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R2192-AGAGCAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGCAGTAGGTCTCGTGGGCTCGG</t>
+    <t>R2192-TCGAGTTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAGTTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2193-ACGTAGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTAGACTAGTCTCGTGGGCTCGG</t>
+    <t>R2193-AGTTCTTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCTTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2194-ATGACGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACGTCGTGTCTCGTGGGCTCGG</t>
+    <t>R2194-TTGGTGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTGTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R2195-ATCGTACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTACGTTGTCTCGTGGGCTCGG</t>
+    <t>R2195-CTAGTCGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGTCGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R2196-ACTGCAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGCAGACAGTCTCGTGGGCTCGG</t>
+    <t>R2196-GTGATGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGATGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R2197-TAGCTCAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTCAGATGTCTCGTGGGCTCGG</t>
+    <t>R2197-TTCGTACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2198-ACGTACTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTACTCTGGTCTCGTGGGCTCGG</t>
+    <t>R2198-TAGCTGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2199-AGAGACTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACTCGTGTCTCGTGGGCTCGG</t>
+    <t>R2199-TGATCTCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATCTCAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2200-GAGGAAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGAAGCATGTCTCGTGGGCTCGG</t>
+    <t>R2200-TTGGAGGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGAGGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2201-AGTCTGGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTGGTCAGTCTCGTGGGCTCGG</t>
+    <t>R2201-CAAGCAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGCAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2202-CCTTGACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTGACTGTGTCTCGTGGGCTCGG</t>
+    <t>R2202-AAGCAGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2203-TGACTTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTTGCAAGTCTCGTGGGCTCGG</t>
+    <t>R2203-CATCAGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCAGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2204-GTCACATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACATCTGGTCTCGTGGGCTCGG</t>
+    <t>R2204-TGTACTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2205-GAGGATGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGATGAAGGTCTCGTGGGCTCGG</t>
+    <t>R2205-ACGAAGTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAAGTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2206-AAGGTACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTACAAGGTCTCGTGGGCTCGG</t>
+    <t>R2206-AGAAGAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGAGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2207-TGATGCTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGCTGTAGTCTCGTGGGCTCGG</t>
+    <t>R2207-TCCACAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCACAAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2208-AACGTAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R2208-TCTTGTTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGTTGGTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
